--- a/semiconductor-scheduling-data/semiconductor_data.xlsx
+++ b/semiconductor-scheduling-data/semiconductor_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugene/Desktop/Lab/job_shop/semiconductor-scheduling-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B418AC8D-7DBC-5B40-AA68-DB262E23B8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385F7EAE-D601-AB48-A311-189532B31C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16020" activeTab="3" xr2:uid="{B812CB12-0CE9-6042-8FC2-22A9A354D44B}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16020" activeTab="2" xr2:uid="{B812CB12-0CE9-6042-8FC2-22A9A354D44B}"/>
   </bookViews>
   <sheets>
     <sheet name="EQP_RECIPE" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="WIP" sheetId="3" r:id="rId3"/>
     <sheet name="set_up_time" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EQP_RECIPE!$A$1:$C$101</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1049,12 +1052,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1071,8 +1080,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,10 +1401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F922EA9-6E0D-7244-8763-B6B35A45E785}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1408,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1432,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1443,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +1465,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" hidden="1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1463,7 +1476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" hidden="1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" hidden="1">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1485,7 +1498,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" hidden="1">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" hidden="1">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1520,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" hidden="1">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1531,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" hidden="1">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" hidden="1">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1553,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" hidden="1">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1575,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" hidden="1">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1586,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" hidden="1">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1597,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1595,7 +1608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1606,7 +1619,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" hidden="1">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1630,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" hidden="1">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1641,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" hidden="1">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" hidden="1">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1663,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" hidden="1">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1672,7 +1685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" hidden="1">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +1696,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" hidden="1">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1707,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1718,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" hidden="1">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +1729,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1738,7 +1751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1773,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1782,7 +1795,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" hidden="1">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1793,7 +1806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" hidden="1">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1815,7 +1828,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" hidden="1">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" hidden="1">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1837,7 +1850,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" hidden="1">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1848,7 +1861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" hidden="1">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1859,7 +1872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" hidden="1">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" hidden="1">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1903,7 +1916,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" hidden="1">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1927,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" hidden="1">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +1938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" hidden="1">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1936,7 +1949,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" hidden="1">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1947,7 +1960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" hidden="1">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1958,7 +1971,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" hidden="1">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1969,7 +1982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" hidden="1">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" hidden="1">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2002,7 +2015,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" hidden="1">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2013,7 +2026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" hidden="1">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -2024,7 +2037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" hidden="1">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2035,7 +2048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" hidden="1">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -2046,7 +2059,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" hidden="1">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -2057,7 +2070,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" hidden="1">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -2068,7 +2081,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" hidden="1">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2079,7 +2092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" hidden="1">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2090,7 +2103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" hidden="1">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" hidden="1">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -2123,7 +2136,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" hidden="1">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2134,7 +2147,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" hidden="1">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -2145,7 +2158,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" hidden="1">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -2156,7 +2169,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" hidden="1">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -2167,7 +2180,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" hidden="1">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2178,7 +2191,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2189,7 +2202,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" hidden="1">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2213,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" hidden="1">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2222,7 +2235,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" hidden="1">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +2246,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" hidden="1">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" hidden="1">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -2255,7 +2268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" hidden="1">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2266,7 +2279,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" hidden="1">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2277,7 +2290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2288,7 +2301,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" hidden="1">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" hidden="1">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -2310,7 +2323,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -2332,7 +2345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2343,7 +2356,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" hidden="1">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2354,7 +2367,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" hidden="1">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -2365,7 +2378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -2376,7 +2389,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -2387,7 +2400,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -2398,7 +2411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2409,7 +2422,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -2420,7 +2433,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -2442,7 +2455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -2453,7 +2466,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -2464,7 +2477,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -2475,7 +2488,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -2486,7 +2499,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -2497,7 +2510,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -2509,6 +2522,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C101" xr:uid="{42D63D1D-1498-F94C-BE15-1FD380E1624B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="X4000"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2655,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0E10B-9FBB-E34B-A751-C356DCE45166}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3272,7 +3292,7 @@
       <c r="D18">
         <v>25</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.4</v>
       </c>
       <c r="F18">
@@ -6209,7 +6229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F36CBDD-9F94-8849-8A8B-0B02D0DFFAF6}">
   <dimension ref="A1:CW101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
